--- a/Improgress/2. Artifact and Deliverable/Testing/TE_TestReport/TE_TestReport_ver1.3.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Testing/TE_TestReport/TE_TestReport_ver1.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\TE_TestReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_TestReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973AF2CB-F3E6-4EAB-AC5A-C33E5D7264C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F75FC-4BA8-4B52-B14B-F66F55D09A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E318185C-8A9A-4A29-98A0-0CEA7463FE50}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="130">
   <si>
     <t>TEST SUMMARY REPORT</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>Thêm phòng ban</t>
   </si>
 </sst>
 </file>
@@ -1248,6 +1251,12 @@
     <xf numFmtId="0" fontId="27" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1287,6 +1296,9 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1304,9 +1316,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,12 +1356,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2339,7 +2342,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Summary Report'!$A$39:$A$41</c:f>
+              <c:f>'Summary Report'!$A$40:$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2356,7 +2359,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Report'!$B$39:$B$41</c:f>
+              <c:f>'Summary Report'!$B$40:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2663,7 +2666,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2914,7 +2917,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Module 3'!$A$13:$A$16</c:f>
+              <c:f>'Module 3'!$A$14:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2934,7 +2937,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Module 3'!$B$13:$B$16</c:f>
+              <c:f>'Module 3'!$B$14:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3760,7 +3763,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Module 3'!$L$13:$L$15</c:f>
+              <c:f>'Module 3'!$L$14:$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3777,7 +3780,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Module 3'!$M$13:$M$15</c:f>
+              <c:f>'Module 3'!$M$14:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4034,7 +4037,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>349</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11</c:v>
@@ -4670,7 +4673,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Summary Report'!$G$38:$G$40</c:f>
+              <c:f>'Summary Report'!$G$39:$G$41</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4687,7 +4690,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Report'!$H$38:$H$40</c:f>
+              <c:f>'Summary Report'!$H$39:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -14339,13 +14342,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>330573</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>146797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>879661</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>43703</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14411,13 +14414,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>319367</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>225237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>364191</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>178173</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14684,7 +14687,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14714,13 +14717,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>465044</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>117661</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>32496</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14750,13 +14753,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>162485</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>180414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>498661</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>66114</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15128,18 +15131,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -15147,16 +15150,16 @@
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -15164,121 +15167,121 @@
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
       <c r="K3" s="9"/>
       <c r="L3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="70" t="s">
+      <c r="M3" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="71"/>
+      <c r="N3" s="73"/>
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="9"/>
       <c r="L4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="70" t="s">
+      <c r="M4" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="71"/>
+      <c r="N4" s="73"/>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="69"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="9"/>
       <c r="L5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="70" t="s">
+      <c r="M5" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="71"/>
+      <c r="N5" s="73"/>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="69"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="9"/>
       <c r="L6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="70" t="s">
+      <c r="M6" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="71"/>
+      <c r="N6" s="73"/>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="9"/>
       <c r="L7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="70" t="s">
+      <c r="M7" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="71"/>
+      <c r="N7" s="73"/>
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="7"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -15286,16 +15289,16 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="7"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -15303,16 +15306,16 @@
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="7"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -15320,35 +15323,35 @@
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="74"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="76"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="9"/>
       <c r="L12" s="14" t="s">
         <v>55</v>
@@ -15364,16 +15367,16 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="9"/>
       <c r="L13" s="15" t="s">
         <v>59</v>
@@ -15389,21 +15392,21 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="9"/>
       <c r="L14" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="98" t="s">
+      <c r="M14" s="64" t="s">
         <v>127</v>
       </c>
       <c r="N14" s="17" t="s">
@@ -15414,21 +15417,21 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="9"/>
       <c r="L15" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="M15" s="99">
+      <c r="M15" s="65">
         <v>44110</v>
       </c>
       <c r="N15" s="17" t="s">
@@ -15439,16 +15442,16 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="9"/>
       <c r="L16" s="15" t="s">
         <v>123</v>
@@ -15464,16 +15467,16 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="9"/>
       <c r="L17" s="20"/>
       <c r="M17" s="21"/>
@@ -15481,16 +15484,16 @@
       <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="9"/>
       <c r="L18" s="20"/>
       <c r="M18" s="21"/>
@@ -15498,16 +15501,16 @@
       <c r="O18" s="21"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="9"/>
       <c r="L19" s="20"/>
       <c r="M19" s="21"/>
@@ -15515,16 +15518,16 @@
       <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="9"/>
       <c r="L20" s="20"/>
       <c r="M20" s="21"/>
@@ -15548,10 +15551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB9FFAD-E3D2-4EF5-8568-1EB72610A6BB}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15571,19 +15574,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
@@ -15613,19 +15616,19 @@
       <c r="I2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="76"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="34" t="s">
@@ -15650,13 +15653,13 @@
         <v>112</v>
       </c>
       <c r="K3" s="57">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="34" t="s">
         <v>72</v>
       </c>
@@ -15683,11 +15686,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="82"/>
-      <c r="B5" s="81" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="34" t="s">
@@ -15712,13 +15715,14 @@
         <v>107</v>
       </c>
       <c r="K5" s="57">
-        <v>357</v>
+        <f>SUM(K3:K4)</f>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="34" t="s">
         <v>12</v>
       </c>
@@ -15739,9 +15743,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="34" t="s">
         <v>13</v>
       </c>
@@ -15762,9 +15766,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="34" t="s">
         <v>74</v>
       </c>
@@ -15785,9 +15789,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="34" t="s">
         <v>75</v>
       </c>
@@ -15808,9 +15812,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="34" t="s">
         <v>14</v>
       </c>
@@ -15831,9 +15835,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -15854,9 +15858,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="34" t="s">
         <v>76</v>
       </c>
@@ -15877,9 +15881,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="34" t="s">
         <v>77</v>
       </c>
@@ -15900,9 +15904,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="34" t="s">
         <v>73</v>
       </c>
@@ -15923,11 +15927,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
-      <c r="B15" s="81" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="84" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="34" t="s">
@@ -15950,9 +15954,9 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="34" t="s">
         <v>17</v>
       </c>
@@ -15973,9 +15977,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="34" t="s">
         <v>93</v>
       </c>
@@ -15996,9 +16000,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="34" t="s">
         <v>18</v>
       </c>
@@ -16019,9 +16023,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="34" t="s">
         <v>94</v>
       </c>
@@ -16042,13 +16046,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="85" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -16071,9 +16075,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="34" t="s">
         <v>80</v>
       </c>
@@ -16094,9 +16098,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="34" t="s">
         <v>81</v>
       </c>
@@ -16117,9 +16121,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="34" t="s">
         <v>82</v>
       </c>
@@ -16140,9 +16144,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="34" t="s">
         <v>92</v>
       </c>
@@ -16163,9 +16167,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="34" t="s">
         <v>91</v>
       </c>
@@ -16186,9 +16190,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="34" t="s">
         <v>83</v>
       </c>
@@ -16209,13 +16213,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="79" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="51" t="s">
@@ -16238,9 +16242,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="51" t="s">
         <v>98</v>
       </c>
@@ -16261,9 +16265,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="51" t="s">
         <v>99</v>
       </c>
@@ -16284,9 +16288,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="51" t="s">
         <v>100</v>
       </c>
@@ -16307,11 +16311,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="84"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="51" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>60</v>
@@ -16330,17 +16334,17 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="84"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F32" s="52">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G32" s="53">
         <v>1</v>
@@ -16352,159 +16356,184 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
+    <row r="33" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F33" s="52">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G33" s="53">
         <v>1</v>
       </c>
       <c r="H33" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="52">
         <v>0</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F34" s="52">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G34" s="53">
         <v>1</v>
       </c>
       <c r="H34" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="52">
         <v>0</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="54">
-        <f>SUM(F3:F34)</f>
-        <v>357</v>
-      </c>
-      <c r="G35" s="55">
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="52">
+        <v>6</v>
+      </c>
+      <c r="G35" s="53">
         <v>1</v>
       </c>
-      <c r="H35" s="54">
-        <f>SUM(H3:H34)</f>
-        <v>61</v>
-      </c>
-      <c r="I35" s="54">
-        <f>SUM(I3:I34)</f>
-        <v>50</v>
+      <c r="H35" s="52">
+        <v>0</v>
+      </c>
+      <c r="I35" s="52">
+        <v>0</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="54">
+        <f>SUM(F3:F35)</f>
+        <v>372</v>
+      </c>
+      <c r="G36" s="55">
+        <v>1</v>
+      </c>
+      <c r="H36" s="54">
+        <f>SUM(H3:H35)</f>
+        <v>61</v>
+      </c>
+      <c r="I36" s="54">
+        <f>SUM(I3:I35)</f>
+        <v>50</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="3"/>
-      <c r="G37" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="H37" s="80"/>
+    <row r="37" spans="1:11" s="3" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="63">
-        <v>1</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="H38" s="41">
-        <v>0.4</v>
-      </c>
+    <row r="38" spans="1:11" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="78"/>
+      <c r="C38" s="3"/>
+      <c r="G38" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="83"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="58">
-        <v>61</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>115</v>
+      <c r="A39" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="63">
+        <v>1</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>114</v>
       </c>
       <c r="H39" s="41">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="58">
+        <v>61</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" s="41">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="59">
+      <c r="B41" s="59">
         <v>50</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G41" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="41">
+      <c r="H41" s="41">
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="60">
+      <c r="B42" s="60">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A27:A35"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C20:C26"/>
-    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C27:C35"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B26"/>
@@ -16512,9 +16541,7 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C14"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="B27:B35"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="E20:E26">
@@ -16670,7 +16697,7 @@
       <formula>NOT(ISERROR(SEARCH("High",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27 E30:E34">
+  <conditionalFormatting sqref="E27 E30:E35">
     <cfRule type="containsText" dxfId="14" priority="26" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
     </cfRule>
@@ -16725,7 +16752,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E19" xr:uid="{0568F904-DD93-4E94-9EC9-6644E1702E17}">
       <formula1>Priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E34" xr:uid="{6A26DC7A-ABA5-4341-B08E-3AB516FF81F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E35" xr:uid="{6A26DC7A-ABA5-4341-B08E-3AB516FF81F8}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16761,21 +16788,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:18" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -16811,16 +16838,16 @@
       <c r="K2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="87"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:18" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -16855,8 +16882,8 @@
       <c r="R3" s="25"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="34" t="s">
         <v>72</v>
       </c>
@@ -16890,10 +16917,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="84" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -16929,8 +16956,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="34" t="s">
         <v>12</v>
       </c>
@@ -16964,8 +16991,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="34" t="s">
         <v>13</v>
       </c>
@@ -16993,8 +17020,8 @@
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="34" t="s">
         <v>74</v>
       </c>
@@ -17022,8 +17049,8 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="34" t="s">
         <v>75</v>
       </c>
@@ -17051,8 +17078,8 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="34" t="s">
         <v>14</v>
       </c>
@@ -17080,8 +17107,8 @@
       <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="34" t="s">
         <v>15</v>
       </c>
@@ -17109,8 +17136,8 @@
       <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="34" t="s">
         <v>76</v>
       </c>
@@ -17138,8 +17165,8 @@
       <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="34" t="s">
         <v>77</v>
       </c>
@@ -17167,8 +17194,8 @@
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="34" t="s">
         <v>73</v>
       </c>
@@ -17196,10 +17223,10 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -17229,8 +17256,8 @@
       <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="84"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="34" t="s">
         <v>17</v>
       </c>
@@ -17258,8 +17285,8 @@
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="34" t="s">
         <v>93</v>
       </c>
@@ -17287,8 +17314,8 @@
       <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="34" t="s">
         <v>18</v>
       </c>
@@ -17316,8 +17343,8 @@
       <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="84"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="34" t="s">
         <v>94</v>
       </c>
@@ -17346,14 +17373,14 @@
     </row>
     <row r="20" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="J21" s="79" t="s">
+      <c r="D21" s="83"/>
+      <c r="J21" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="80"/>
+      <c r="K21" s="83"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="42" t="s">
@@ -17446,21 +17473,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -17496,16 +17523,16 @@
       <c r="K2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="91"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -17533,14 +17560,14 @@
         <v>0</v>
       </c>
       <c r="K3" s="37"/>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="90"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="34" t="s">
         <v>80</v>
       </c>
@@ -17574,8 +17601,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="34" t="s">
         <v>81</v>
       </c>
@@ -17609,8 +17636,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="34" t="s">
         <v>82</v>
       </c>
@@ -17644,8 +17671,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="34" t="s">
         <v>92</v>
       </c>
@@ -17675,8 +17702,8 @@
       <c r="M7" s="47"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="34" t="s">
         <v>91</v>
       </c>
@@ -17706,8 +17733,8 @@
       <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="34" t="s">
         <v>83</v>
       </c>
@@ -17736,15 +17763,15 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="83"/>
       <c r="D11" s="48"/>
-      <c r="K11" s="79" t="s">
+      <c r="K11" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="L11" s="80"/>
+      <c r="L11" s="83"/>
     </row>
     <row r="12" spans="1:13" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
@@ -17815,10 +17842,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694BC5FF-6919-4709-9797-234C15603864}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17831,20 +17858,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -17880,16 +17907,16 @@
       <c r="K2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="91"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="51" t="s">
@@ -17917,14 +17944,14 @@
         <v>0</v>
       </c>
       <c r="K3" s="49"/>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="90"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="51" t="s">
         <v>98</v>
       </c>
@@ -17954,12 +17981,12 @@
         <v>84</v>
       </c>
       <c r="M4" s="46">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="51" t="s">
         <v>99</v>
       </c>
@@ -17993,8 +18020,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="51" t="s">
         <v>100</v>
       </c>
@@ -18024,14 +18051,14 @@
         <v>86</v>
       </c>
       <c r="M6" s="46">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="51" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D7" s="52">
         <v>15</v>
@@ -18057,13 +18084,13 @@
       <c r="K7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="52">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E8" s="50">
         <v>1</v>
@@ -18086,28 +18113,28 @@
       <c r="K8" s="49"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="52">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E9" s="50">
         <v>1</v>
       </c>
       <c r="F9" s="50">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="G9" s="50">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H9" s="50">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I9" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="49">
         <v>0</v>
@@ -18115,104 +18142,137 @@
       <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="52">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E10" s="50">
         <v>1</v>
       </c>
       <c r="F10" s="50">
+        <v>0.94</v>
+      </c>
+      <c r="G10" s="50">
+        <v>0.06</v>
+      </c>
+      <c r="H10" s="50">
+        <v>0.06</v>
+      </c>
+      <c r="I10" s="49">
         <v>1</v>
-      </c>
-      <c r="G10" s="50">
-        <v>0</v>
-      </c>
-      <c r="H10" s="50">
-        <v>0</v>
-      </c>
-      <c r="I10" s="49">
-        <v>0</v>
       </c>
       <c r="J10" s="49">
         <v>0</v>
       </c>
       <c r="K10" s="49"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="79" t="s">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="52">
+        <v>6</v>
+      </c>
+      <c r="E11" s="50">
+        <v>1</v>
+      </c>
+      <c r="F11" s="50">
+        <v>1</v>
+      </c>
+      <c r="G11" s="50">
+        <v>0</v>
+      </c>
+      <c r="H11" s="50">
+        <v>0</v>
+      </c>
+      <c r="I11" s="49">
+        <v>0</v>
+      </c>
+      <c r="J11" s="49">
+        <v>0</v>
+      </c>
+      <c r="K11" s="49"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="L12" s="79" t="s">
+      <c r="B13" s="83"/>
+      <c r="J13">
+        <f>SUM(D3:D11)</f>
+        <v>131</v>
+      </c>
+      <c r="L13" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="M12" s="80"/>
+      <c r="M13" s="83"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+    <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B14" s="41">
         <v>0.99137931000000001</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L14" s="42" t="s">
         <v>114</v>
-      </c>
-      <c r="M13" s="41">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="41">
-        <v>8.6206896999999998E-3</v>
-      </c>
-      <c r="L14" s="43" t="s">
-        <v>115</v>
       </c>
       <c r="M14" s="41">
         <v>0.43</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:13" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="41">
+        <v>8.6206896999999998E-3</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" s="41">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B16" s="41">
         <v>0</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="L16" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M16" s="41">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+    <row r="17" spans="1:2" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B17" s="41">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18231,20 +18291,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -18285,10 +18345,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -18305,8 +18365,8 @@
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
@@ -18321,8 +18381,8 @@
       <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
@@ -18337,8 +18397,8 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
@@ -18353,8 +18413,8 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
@@ -18369,8 +18429,8 @@
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
@@ -18385,8 +18445,8 @@
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
@@ -18401,8 +18461,8 @@
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="96"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
@@ -18417,8 +18477,8 @@
       <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
@@ -18433,10 +18493,10 @@
       <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="97" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -18453,8 +18513,8 @@
       <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="97"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
@@ -18481,21 +18541,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C67113431583B94C8A6DA25208A99150" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e368f08993c02c073d893c0ffb464f68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5179f4ed-0456-4033-bb07-b902202718e4" xmlns:ns4="2fe4d6ba-7215-4b36-8902-32f95bc89ed6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ea0fcb86f04032baf93603fe41017e0" ns3:_="" ns4:_="">
     <xsd:import namespace="5179f4ed-0456-4033-bb07-b902202718e4"/>
@@ -18666,32 +18711,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C5633C-A25B-4876-89DD-B1B7E008050D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="5179f4ed-0456-4033-bb07-b902202718e4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2fe4d6ba-7215-4b36-8902-32f95bc89ed6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7536E2E-DDDD-43D7-BD43-8F588F4BABE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1206D6D3-7530-451B-8E95-B6051DA78843}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18708,4 +18743,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7536E2E-DDDD-43D7-BD43-8F588F4BABE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C5633C-A25B-4876-89DD-B1B7E008050D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="5179f4ed-0456-4033-bb07-b902202718e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2fe4d6ba-7215-4b36-8902-32f95bc89ed6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Improgress/2. Artifact and Deliverable/Testing/TE_TestReport/TE_TestReport_ver1.3.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Testing/TE_TestReport/TE_TestReport_ver1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_TestReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_TestReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F75FC-4BA8-4B52-B14B-F66F55D09A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1369C39-E3D6-4A77-85B0-6CE66AE89E1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E318185C-8A9A-4A29-98A0-0CEA7463FE50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{E318185C-8A9A-4A29-98A0-0CEA7463FE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -35,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -421,9 +419,6 @@
     <t>Priority Module 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Priority </t>
-  </si>
-  <si>
     <t>Version 1.1</t>
   </si>
   <si>
@@ -450,12 +445,15 @@
   <si>
     <t>Thêm phòng ban</t>
   </si>
+  <si>
+    <t xml:space="preserve">Summary priority </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +631,12 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1082,7 +1086,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1290,6 +1294,15 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1311,15 +1324,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1357,11 +1361,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Bình thường 2" xfId="1" xr:uid="{BC123D7E-EEC2-44B8-A89A-EAB74A7BF003}"/>
     <cellStyle name="Bình thường 3" xfId="2" xr:uid="{AD2C2090-4C6C-4E85-A652-F964DFEC39CC}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="60">
     <dxf>
@@ -1980,7 +1986,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2190,7 +2196,7 @@
                     <a:fld id="{D0CA38EB-C1E5-4033-B7DF-B638DAB3DB33}" type="VALUE">
                       <a:rPr lang="en-US" sz="1200"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -2229,7 +2235,7 @@
                     <a:fld id="{7806F1D4-1A30-4E3E-85B2-DDAD0E51B975}" type="VALUE">
                       <a:rPr lang="en-US" sz="1200"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -2262,7 +2268,7 @@
                     <a:fld id="{11843CB9-E60E-4B54-9EC5-9EE6EB5BA360}" type="VALUE">
                       <a:rPr lang="en-US" sz="1200"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -2477,7 +2483,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2511,7 +2517,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Functional Chart Summary</a:t>
+              <a:t>Functional Chart Module 3</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -2776,7 +2782,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3137,7 +3143,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3402,7 +3408,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[TÊN THỂ LOẠI]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -3413,7 +3419,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3512,7 +3518,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[TÊN THỂ LOẠI]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -3527,7 +3533,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3624,7 +3630,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[TÊN THỂ LOẠI]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -3647,7 +3653,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -3868,7 +3874,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3880,6 +3886,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Functional Chart Summary</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4147,7 +4183,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4534,7 +4570,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[TÊN THỂ LOẠI]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -4557,7 +4593,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -4778,7 +4814,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4810,8 +4846,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Functional Chart Summary</a:t>
+              <a:t>Functional Chart Module</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5080,7 +5121,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5498,7 +5539,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5896,7 +5937,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[TÊN THỂ LOẠI]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -5919,7 +5960,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -6140,7 +6181,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6174,7 +6215,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Functional Chart Summary</a:t>
+              <a:t>Functional Chart Module 2</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -6449,7 +6490,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6865,7 +6906,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7257,7 +7298,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[TÊN THỂ LOẠI]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -7280,7 +7321,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -14820,7 +14861,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15404,16 +15445,16 @@
       <c r="J14" s="71"/>
       <c r="K14" s="9"/>
       <c r="L14" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M14" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>68</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15429,7 +15470,7 @@
       <c r="J15" s="71"/>
       <c r="K15" s="9"/>
       <c r="L15" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M15" s="65">
         <v>44110</v>
@@ -15438,7 +15479,7 @@
         <v>68</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15454,16 +15495,16 @@
       <c r="J16" s="71"/>
       <c r="K16" s="9"/>
       <c r="L16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="N16" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="O16" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15553,8 +15594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB9FFAD-E3D2-4EF5-8568-1EB72610A6BB}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15574,19 +15615,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
@@ -15616,19 +15657,19 @@
       <c r="I2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="78"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="34" t="s">
@@ -15652,14 +15693,14 @@
       <c r="J3" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="100">
         <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="34" t="s">
         <v>72</v>
       </c>
@@ -15681,16 +15722,16 @@
       <c r="J4" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="101">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
-      <c r="B5" s="84" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="87" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="34" t="s">
@@ -15720,9 +15761,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="34" t="s">
         <v>12</v>
       </c>
@@ -15743,9 +15784,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="34" t="s">
         <v>13</v>
       </c>
@@ -15766,9 +15807,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="34" t="s">
         <v>74</v>
       </c>
@@ -15789,9 +15830,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="34" t="s">
         <v>75</v>
       </c>
@@ -15812,9 +15853,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="34" t="s">
         <v>14</v>
       </c>
@@ -15835,9 +15876,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -15858,9 +15899,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="34" t="s">
         <v>76</v>
       </c>
@@ -15881,9 +15922,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="34" t="s">
         <v>77</v>
       </c>
@@ -15904,9 +15945,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="34" t="s">
         <v>73</v>
       </c>
@@ -15927,11 +15968,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="85"/>
-      <c r="B15" s="84" t="s">
+      <c r="A15" s="77"/>
+      <c r="B15" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="87" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="34" t="s">
@@ -15954,9 +15995,9 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="34" t="s">
         <v>17</v>
       </c>
@@ -15977,9 +16018,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="34" t="s">
         <v>93</v>
       </c>
@@ -16000,9 +16041,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="34" t="s">
         <v>18</v>
       </c>
@@ -16023,9 +16064,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="34" t="s">
         <v>94</v>
       </c>
@@ -16046,13 +16087,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="77" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -16075,9 +16116,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="34" t="s">
         <v>80</v>
       </c>
@@ -16098,9 +16139,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="34" t="s">
         <v>81</v>
       </c>
@@ -16121,9 +16162,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="34" t="s">
         <v>82</v>
       </c>
@@ -16144,9 +16185,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="34" t="s">
         <v>92</v>
       </c>
@@ -16167,9 +16208,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="34" t="s">
         <v>91</v>
       </c>
@@ -16190,9 +16231,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="34" t="s">
         <v>83</v>
       </c>
@@ -16213,13 +16254,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="82" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="51" t="s">
@@ -16242,9 +16283,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="51" t="s">
         <v>98</v>
       </c>
@@ -16265,9 +16306,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="51" t="s">
         <v>99</v>
       </c>
@@ -16288,9 +16329,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="51" t="s">
         <v>100</v>
       </c>
@@ -16311,11 +16352,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>60</v>
@@ -16334,9 +16375,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="51" t="s">
         <v>101</v>
       </c>
@@ -16357,9 +16398,9 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="79"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="51" t="s">
         <v>102</v>
       </c>
@@ -16380,9 +16421,9 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="51" t="s">
         <v>103</v>
       </c>
@@ -16405,9 +16446,9 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="51" t="s">
         <v>104</v>
       </c>
@@ -16430,13 +16471,13 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="54">
         <f>SUM(F3:F35)</f>
         <v>372</v>
@@ -16460,15 +16501,15 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="78"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="3"/>
-      <c r="G38" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="H38" s="83"/>
+      <c r="G38" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="86"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
@@ -16524,11 +16565,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="C15:C19"/>
@@ -16542,6 +16578,11 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C14"/>
     <mergeCell ref="B27:B35"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="E20:E26">
@@ -16766,7 +16807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7128E3-2481-4102-BD89-0F34EEEF4D97}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J21" sqref="J21:K24"/>
     </sheetView>
   </sheetViews>
@@ -16844,10 +16885,10 @@
       <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:18" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="87" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -16882,8 +16923,8 @@
       <c r="R3" s="25"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="34" t="s">
         <v>72</v>
       </c>
@@ -16917,10 +16958,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="87" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -16956,8 +16997,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="34" t="s">
         <v>12</v>
       </c>
@@ -16991,8 +17032,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="34" t="s">
         <v>13</v>
       </c>
@@ -17020,8 +17061,8 @@
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="34" t="s">
         <v>74</v>
       </c>
@@ -17049,8 +17090,8 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="34" t="s">
         <v>75</v>
       </c>
@@ -17078,8 +17119,8 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="34" t="s">
         <v>14</v>
       </c>
@@ -17107,8 +17148,8 @@
       <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="34" t="s">
         <v>15</v>
       </c>
@@ -17136,8 +17177,8 @@
       <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="34" t="s">
         <v>76</v>
       </c>
@@ -17165,8 +17206,8 @@
       <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="34" t="s">
         <v>77</v>
       </c>
@@ -17194,8 +17235,8 @@
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="34" t="s">
         <v>73</v>
       </c>
@@ -17223,10 +17264,10 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="82" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -17256,8 +17297,8 @@
       <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="34" t="s">
         <v>17</v>
       </c>
@@ -17285,8 +17326,8 @@
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="34" t="s">
         <v>93</v>
       </c>
@@ -17314,8 +17355,8 @@
       <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="34" t="s">
         <v>18</v>
       </c>
@@ -17343,8 +17384,8 @@
       <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="34" t="s">
         <v>94</v>
       </c>
@@ -17373,14 +17414,14 @@
     </row>
     <row r="20" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="J21" s="82" t="s">
+      <c r="D21" s="86"/>
+      <c r="J21" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="83"/>
+      <c r="K21" s="86"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="42" t="s">
@@ -17455,7 +17496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40566D28-21C4-44E4-ABBE-5B604C2764AF}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -17529,10 +17570,10 @@
       <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="87" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -17566,8 +17607,8 @@
       <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="34" t="s">
         <v>80</v>
       </c>
@@ -17601,8 +17642,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="34" t="s">
         <v>81</v>
       </c>
@@ -17636,8 +17677,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="34" t="s">
         <v>82</v>
       </c>
@@ -17671,8 +17712,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="34" t="s">
         <v>92</v>
       </c>
@@ -17702,8 +17743,8 @@
       <c r="M7" s="47"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="34" t="s">
         <v>91</v>
       </c>
@@ -17733,8 +17774,8 @@
       <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="34" t="s">
         <v>83</v>
       </c>
@@ -17763,15 +17804,15 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="83"/>
+      <c r="B11" s="86"/>
       <c r="D11" s="48"/>
-      <c r="K11" s="82" t="s">
+      <c r="K11" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="L11" s="83"/>
+      <c r="L11" s="86"/>
     </row>
     <row r="12" spans="1:13" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
@@ -17844,7 +17885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694BC5FF-6919-4709-9797-234C15603864}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -17913,10 +17954,10 @@
       <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="87" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="51" t="s">
@@ -17950,8 +17991,8 @@
       <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="51" t="s">
         <v>98</v>
       </c>
@@ -17985,8 +18026,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="51" t="s">
         <v>99</v>
       </c>
@@ -18020,8 +18061,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="51" t="s">
         <v>100</v>
       </c>
@@ -18055,10 +18096,10 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="52">
         <v>15</v>
@@ -18084,8 +18125,8 @@
       <c r="K7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="51" t="s">
         <v>101</v>
       </c>
@@ -18113,8 +18154,8 @@
       <c r="K8" s="49"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="51" t="s">
         <v>102</v>
       </c>
@@ -18142,8 +18183,8 @@
       <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="51" t="s">
         <v>103</v>
       </c>
@@ -18171,8 +18212,8 @@
       <c r="K10" s="49"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="51" t="s">
         <v>104</v>
       </c>
@@ -18201,18 +18242,18 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="86"/>
       <c r="J13">
         <f>SUM(D3:D11)</f>
         <v>131</v>
       </c>
-      <c r="L13" s="82" t="s">
+      <c r="L13" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="M13" s="83"/>
+      <c r="M13" s="86"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
@@ -18541,6 +18582,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C67113431583B94C8A6DA25208A99150" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e368f08993c02c073d893c0ffb464f68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5179f4ed-0456-4033-bb07-b902202718e4" xmlns:ns4="2fe4d6ba-7215-4b36-8902-32f95bc89ed6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ea0fcb86f04032baf93603fe41017e0" ns3:_="" ns4:_="">
     <xsd:import namespace="5179f4ed-0456-4033-bb07-b902202718e4"/>
@@ -18711,22 +18767,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C5633C-A25B-4876-89DD-B1B7E008050D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="2fe4d6ba-7215-4b36-8902-32f95bc89ed6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5179f4ed-0456-4033-bb07-b902202718e4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7536E2E-DDDD-43D7-BD43-8F588F4BABE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1206D6D3-7530-451B-8E95-B6051DA78843}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18743,29 +18809,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7536E2E-DDDD-43D7-BD43-8F588F4BABE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C5633C-A25B-4876-89DD-B1B7E008050D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="5179f4ed-0456-4033-bb07-b902202718e4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2fe4d6ba-7215-4b36-8902-32f95bc89ed6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Improgress/2. Artifact and Deliverable/Testing/TE_TestReport/TE_TestReport_ver1.3.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Testing/TE_TestReport/TE_TestReport_ver1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_TestReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_TestReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1369C39-E3D6-4A77-85B0-6CE66AE89E1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1639EFA-373D-47B2-8242-8B9A41141AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{E318185C-8A9A-4A29-98A0-0CEA7463FE50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{E318185C-8A9A-4A29-98A0-0CEA7463FE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1086,7 +1088,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1261,6 +1263,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1294,24 +1297,6 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1324,6 +1309,24 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1361,13 +1364,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Bình thường 2" xfId="1" xr:uid="{BC123D7E-EEC2-44B8-A89A-EAB74A7BF003}"/>
     <cellStyle name="Bình thường 3" xfId="2" xr:uid="{AD2C2090-4C6C-4E85-A652-F964DFEC39CC}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="60">
     <dxf>
@@ -1986,7 +1987,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2017,14 +2018,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Defect</a:t>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Functional Chart Summary</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Chart</a:t>
-            </a:r>
-            <a:endParaRPr lang="vi-VN"/>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2098,7 +2099,17 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.7777777777777776E-2"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
       <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -2125,7 +2136,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-23F1-4EA1-AF38-042126352079}"/>
+                <c16:uniqueId val="{00000001-848E-4C6E-8980-86D0E808D567}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2150,232 +2161,34 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-23F1-4EA1-AF38-042126352079}"/>
+                <c16:uniqueId val="{00000003-848E-4C6E-8980-86D0E808D567}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-23F1-4EA1-AF38-042126352079}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.15980446194225723"/>
-                  <c:y val="-5.1748121629818733E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D0CA38EB-C1E5-4033-B7DF-B638DAB3DB33}" type="VALUE">
-                      <a:rPr lang="en-US" sz="1200"/>
-                      <a:pPr/>
-                      <a:t>[GIÁ TRỊ]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-23F1-4EA1-AF38-042126352079}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.15294531933508312"/>
-                  <c:y val="-9.7414380184357524E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{7806F1D4-1A30-4E3E-85B2-DDAD0E51B975}" type="VALUE">
-                      <a:rPr lang="en-US" sz="1200"/>
-                      <a:pPr/>
-                      <a:t>[GIÁ TRỊ]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-23F1-4EA1-AF38-042126352079}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{11843CB9-E60E-4B54-9EC5-9EE6EB5BA360}" type="VALUE">
-                      <a:rPr lang="en-US" sz="1200"/>
-                      <a:pPr/>
-                      <a:t>[GIÁ TRỊ]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-23F1-4EA1-AF38-042126352079}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Summary Report'!$A$40:$A$42</c:f>
+              <c:f>'Summary Report'!$J$3:$J$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Tìm thấy lỗi</c:v>
+                  <c:v>Pass</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Đã sửa lỗi</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Còn lỗi</c:v>
+                  <c:v>Fail</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Report'!$B$40:$B$42</c:f>
+              <c:f>'Summary Report'!$K$3:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
@@ -2383,7 +2196,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F560-4133-8401-6FF226C2FBBE}"/>
+              <c16:uniqueId val="{00000000-010E-4106-B71A-994226943730}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2483,7 +2296,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2672,7 +2485,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>131</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2782,7 +2595,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3143,7 +2956,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3408,7 +3221,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[TÊN THỂ LOẠI]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -3419,7 +3232,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[GIÁ TRỊ]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3518,7 +3331,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[TÊN THỂ LOẠI]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -3533,7 +3346,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[GIÁ TRỊ]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3630,7 +3443,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[TÊN THỂ LOẠI]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -3653,7 +3466,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[GIÁ TRỊ]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -3874,316 +3687,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Functional Chart Summary</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.7777777777777776E-2"/>
-          <c:y val="0.14393518518518519"/>
-          <c:w val="0.93888888888888888"/>
-          <c:h val="0.6714577865266842"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-848E-4C6E-8980-86D0E808D567}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-848E-4C6E-8980-86D0E808D567}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Summary Report'!$J$3:$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Pass</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fail</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary Report'!$K$3:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-010E-4106-B71A-994226943730}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4570,7 +4074,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[TÊN THỂ LOẠI]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -4593,7 +4097,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[GIÁ TRỊ]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -4811,10 +4315,450 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart Defect</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2222222222222223E-2"/>
+          <c:y val="0.16245370370370371"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-2850-4727-A563-6B958E69B8E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2850-4727-A563-6B958E69B8E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11070888013998251"/>
+                  <c:y val="-0.29113990959463398"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F1AB1E52-8D20-46CE-AD7C-B4408A0F0D52}" type="VALUE">
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-2850-4727-A563-6B958E69B8E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D87463C1-F431-43A9-9E5B-50ECFA1E7221}" type="VALUE">
+                      <a:rPr lang="en-US" sz="1400">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2850-4727-A563-6B958E69B8E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summary Report'!$A$41:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Đã sửa lỗi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Còn lỗi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Report'!$B$41:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2850-4727-A563-6B958E69B8E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5121,7 +5065,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5539,7 +5483,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5937,7 +5881,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[TÊN THỂ LOẠI]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -5960,7 +5904,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[GIÁ TRỊ]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -6181,7 +6125,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6490,7 +6434,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6906,7 +6850,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7298,7 +7242,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[TÊN THỂ LOẠI]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -7321,7 +7265,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[GIÁ TRỊ]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -10129,525 +10073,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11215,6 +10640,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
@@ -14379,42 +14323,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>330573</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>146797</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>879661</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>43703</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Biểu đồ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F10CCBD-0CE2-403A-8FE3-BE521FDC01D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -14445,7 +14353,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14470,6 +14378,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CA4E58-1FE5-4439-A7E0-AED44F58FBAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>274543</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>823631</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>189380</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227FD555-AD11-4960-9632-24D00BC5ABD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14644,15 +14588,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>176892</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14861,7 +14805,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15172,18 +15116,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -15191,16 +15135,16 @@
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -15208,121 +15152,121 @@
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="9"/>
       <c r="L3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="72" t="s">
+      <c r="M3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="73"/>
+      <c r="N3" s="74"/>
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="9"/>
       <c r="L4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="73"/>
+      <c r="N4" s="74"/>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="9"/>
       <c r="L5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="73"/>
+      <c r="N5" s="74"/>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
       <c r="K6" s="9"/>
       <c r="L6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="M6" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="73"/>
+      <c r="N6" s="74"/>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="9"/>
       <c r="L7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="73"/>
+      <c r="N7" s="74"/>
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="7"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -15330,16 +15274,16 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="7"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -15347,16 +15291,16 @@
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="7"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -15364,35 +15308,35 @@
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="74" t="s">
+      <c r="L11" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="77"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="9"/>
       <c r="L12" s="14" t="s">
         <v>55</v>
@@ -15408,16 +15352,16 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="9"/>
       <c r="L13" s="15" t="s">
         <v>59</v>
@@ -15433,16 +15377,16 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="9"/>
       <c r="L14" s="15" t="s">
         <v>120</v>
@@ -15458,16 +15402,16 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="9"/>
       <c r="L15" s="15" t="s">
         <v>121</v>
@@ -15483,16 +15427,16 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="9"/>
       <c r="L16" s="15" t="s">
         <v>122</v>
@@ -15508,16 +15452,16 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="9"/>
       <c r="L17" s="20"/>
       <c r="M17" s="21"/>
@@ -15525,16 +15469,16 @@
       <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="9"/>
       <c r="L18" s="20"/>
       <c r="M18" s="21"/>
@@ -15542,16 +15486,16 @@
       <c r="O18" s="21"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="9"/>
       <c r="L19" s="20"/>
       <c r="M19" s="21"/>
@@ -15559,16 +15503,16 @@
       <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="9"/>
       <c r="L20" s="20"/>
       <c r="M20" s="21"/>
@@ -15594,8 +15538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB9FFAD-E3D2-4EF5-8568-1EB72610A6BB}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15615,19 +15559,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
@@ -15657,19 +15601,19 @@
       <c r="I2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="81"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="82" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="34" t="s">
@@ -15693,14 +15637,14 @@
       <c r="J3" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="100">
-        <v>364</v>
+      <c r="K3" s="66">
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="34" t="s">
         <v>72</v>
       </c>
@@ -15722,16 +15666,16 @@
       <c r="J4" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="101">
+      <c r="K4" s="66">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="77"/>
-      <c r="B5" s="87" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="82" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="34" t="s">
@@ -15756,14 +15700,13 @@
         <v>107</v>
       </c>
       <c r="K5" s="57">
-        <f>SUM(K3:K4)</f>
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="34" t="s">
         <v>12</v>
       </c>
@@ -15784,9 +15727,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="34" t="s">
         <v>13</v>
       </c>
@@ -15807,9 +15750,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="34" t="s">
         <v>74</v>
       </c>
@@ -15830,9 +15773,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="34" t="s">
         <v>75</v>
       </c>
@@ -15853,9 +15796,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="34" t="s">
         <v>14</v>
       </c>
@@ -15876,9 +15819,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -15899,9 +15842,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="34" t="s">
         <v>76</v>
       </c>
@@ -15922,9 +15865,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="34" t="s">
         <v>77</v>
       </c>
@@ -15945,9 +15888,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="34" t="s">
         <v>73</v>
       </c>
@@ -15968,11 +15911,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77"/>
-      <c r="B15" s="87" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="34" t="s">
@@ -15995,9 +15938,9 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="34" t="s">
         <v>17</v>
       </c>
@@ -16018,9 +15961,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="34" t="s">
         <v>93</v>
       </c>
@@ -16041,9 +15984,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="34" t="s">
         <v>18</v>
       </c>
@@ -16064,9 +16007,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="34" t="s">
         <v>94</v>
       </c>
@@ -16087,13 +16030,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="83" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -16116,9 +16059,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="34" t="s">
         <v>80</v>
       </c>
@@ -16139,9 +16082,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="34" t="s">
         <v>81</v>
       </c>
@@ -16162,9 +16105,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="34" t="s">
         <v>82</v>
       </c>
@@ -16185,9 +16128,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="34" t="s">
         <v>92</v>
       </c>
@@ -16208,9 +16151,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="34" t="s">
         <v>91</v>
       </c>
@@ -16231,9 +16174,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="34" t="s">
         <v>83</v>
       </c>
@@ -16254,13 +16197,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="85" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="51" t="s">
@@ -16283,9 +16226,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="51" t="s">
         <v>98</v>
       </c>
@@ -16306,9 +16249,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="51" t="s">
         <v>99</v>
       </c>
@@ -16329,9 +16272,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="51" t="s">
         <v>100</v>
       </c>
@@ -16352,9 +16295,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="51" t="s">
         <v>128</v>
       </c>
@@ -16375,9 +16318,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="51" t="s">
         <v>101</v>
       </c>
@@ -16398,9 +16341,9 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="51" t="s">
         <v>102</v>
       </c>
@@ -16421,9 +16364,9 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="51" t="s">
         <v>103</v>
       </c>
@@ -16446,9 +16389,9 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="51" t="s">
         <v>104</v>
       </c>
@@ -16471,13 +16414,13 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="79" t="s">
+      <c r="A36" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
       <c r="F36" s="54">
         <f>SUM(F3:F35)</f>
         <v>372</v>
@@ -16501,15 +16444,15 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="81"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="3"/>
-      <c r="G38" s="85" t="s">
+      <c r="G38" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="86"/>
+      <c r="H38" s="81"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
@@ -16565,6 +16508,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="C15:C19"/>
@@ -16581,8 +16526,6 @@
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="E20:E26">
@@ -16807,8 +16750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7128E3-2481-4102-BD89-0F34EEEF4D97}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:K24"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -16829,21 +16772,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:18" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -16879,16 +16822,16 @@
       <c r="K2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:18" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="82" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -16923,8 +16866,8 @@
       <c r="R3" s="25"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="34" t="s">
         <v>72</v>
       </c>
@@ -16958,10 +16901,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="82" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -16997,8 +16940,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="34" t="s">
         <v>12</v>
       </c>
@@ -17032,8 +16975,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="34" t="s">
         <v>13</v>
       </c>
@@ -17061,8 +17004,8 @@
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="34" t="s">
         <v>74</v>
       </c>
@@ -17090,8 +17033,8 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="34" t="s">
         <v>75</v>
       </c>
@@ -17119,8 +17062,8 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="34" t="s">
         <v>14</v>
       </c>
@@ -17148,8 +17091,8 @@
       <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="34" t="s">
         <v>15</v>
       </c>
@@ -17177,8 +17120,8 @@
       <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="34" t="s">
         <v>76</v>
       </c>
@@ -17206,8 +17149,8 @@
       <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="34" t="s">
         <v>77</v>
       </c>
@@ -17235,8 +17178,8 @@
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="34" t="s">
         <v>73</v>
       </c>
@@ -17264,10 +17207,10 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="85" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -17297,8 +17240,8 @@
       <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="34" t="s">
         <v>17</v>
       </c>
@@ -17326,8 +17269,8 @@
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="34" t="s">
         <v>93</v>
       </c>
@@ -17355,8 +17298,8 @@
       <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="34" t="s">
         <v>18</v>
       </c>
@@ -17384,8 +17327,8 @@
       <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="34" t="s">
         <v>94</v>
       </c>
@@ -17414,14 +17357,14 @@
     </row>
     <row r="20" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="J21" s="85" t="s">
+      <c r="D21" s="81"/>
+      <c r="J21" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="86"/>
+      <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="42" t="s">
@@ -17497,7 +17440,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17514,21 +17457,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -17564,16 +17507,16 @@
       <c r="K2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="93" t="s">
+      <c r="L2" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="82" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -17601,14 +17544,14 @@
         <v>0</v>
       </c>
       <c r="K3" s="37"/>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="92"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="34" t="s">
         <v>80</v>
       </c>
@@ -17642,8 +17585,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="34" t="s">
         <v>81</v>
       </c>
@@ -17677,8 +17620,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="34" t="s">
         <v>82</v>
       </c>
@@ -17712,8 +17655,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="34" t="s">
         <v>92</v>
       </c>
@@ -17743,8 +17686,8 @@
       <c r="M7" s="47"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="34" t="s">
         <v>91</v>
       </c>
@@ -17774,8 +17717,8 @@
       <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="34" t="s">
         <v>83</v>
       </c>
@@ -17802,17 +17745,22 @@
       </c>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>SUM(D3:D9)</f>
+        <v>91</v>
+      </c>
+    </row>
     <row r="11" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="86"/>
+      <c r="B11" s="81"/>
       <c r="D11" s="48"/>
-      <c r="K11" s="85" t="s">
+      <c r="K11" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="L11" s="86"/>
+      <c r="L11" s="81"/>
     </row>
     <row r="12" spans="1:13" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
@@ -17885,8 +17833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694BC5FF-6919-4709-9797-234C15603864}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17899,20 +17847,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -17948,16 +17896,16 @@
       <c r="K2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="93" t="s">
+      <c r="L2" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="82" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="51" t="s">
@@ -17985,14 +17933,14 @@
         <v>0</v>
       </c>
       <c r="K3" s="49"/>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="92"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="51" t="s">
         <v>98</v>
       </c>
@@ -18022,12 +17970,12 @@
         <v>84</v>
       </c>
       <c r="M4" s="46">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="51" t="s">
         <v>99</v>
       </c>
@@ -18061,8 +18009,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="51" t="s">
         <v>100</v>
       </c>
@@ -18092,12 +18040,12 @@
         <v>86</v>
       </c>
       <c r="M6" s="46">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="51" t="s">
         <v>128</v>
       </c>
@@ -18125,8 +18073,8 @@
       <c r="K7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="51" t="s">
         <v>101</v>
       </c>
@@ -18154,8 +18102,8 @@
       <c r="K8" s="49"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="51" t="s">
         <v>102</v>
       </c>
@@ -18183,8 +18131,8 @@
       <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="51" t="s">
         <v>103</v>
       </c>
@@ -18212,8 +18160,8 @@
       <c r="K10" s="49"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="51" t="s">
         <v>104</v>
       </c>
@@ -18242,18 +18190,14 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="J13">
-        <f>SUM(D3:D11)</f>
-        <v>131</v>
-      </c>
-      <c r="L13" s="85" t="s">
+      <c r="B13" s="81"/>
+      <c r="L13" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="M13" s="86"/>
+      <c r="M13" s="81"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
@@ -18332,20 +18276,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -18386,10 +18330,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -18406,8 +18350,8 @@
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
@@ -18422,8 +18366,8 @@
       <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
@@ -18438,8 +18382,8 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
@@ -18454,8 +18398,8 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
@@ -18470,8 +18414,8 @@
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
@@ -18486,8 +18430,8 @@
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
@@ -18502,8 +18446,8 @@
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
@@ -18518,8 +18462,8 @@
       <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
-      <c r="B11" s="99"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
@@ -18534,10 +18478,10 @@
       <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="98" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -18554,8 +18498,8 @@
       <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
@@ -18582,21 +18526,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C67113431583B94C8A6DA25208A99150" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e368f08993c02c073d893c0ffb464f68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5179f4ed-0456-4033-bb07-b902202718e4" xmlns:ns4="2fe4d6ba-7215-4b36-8902-32f95bc89ed6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ea0fcb86f04032baf93603fe41017e0" ns3:_="" ns4:_="">
     <xsd:import namespace="5179f4ed-0456-4033-bb07-b902202718e4"/>
@@ -18767,32 +18696,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C5633C-A25B-4876-89DD-B1B7E008050D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="2fe4d6ba-7215-4b36-8902-32f95bc89ed6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5179f4ed-0456-4033-bb07-b902202718e4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7536E2E-DDDD-43D7-BD43-8F588F4BABE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1206D6D3-7530-451B-8E95-B6051DA78843}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18809,4 +18728,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7536E2E-DDDD-43D7-BD43-8F588F4BABE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C5633C-A25B-4876-89DD-B1B7E008050D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="2fe4d6ba-7215-4b36-8902-32f95bc89ed6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5179f4ed-0456-4033-bb07-b902202718e4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Improgress/2. Artifact and Deliverable/Testing/TE_TestReport/TE_TestReport_ver1.3.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Testing/TE_TestReport/TE_TestReport_ver1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_TestReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_TestReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1639EFA-373D-47B2-8242-8B9A41141AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77634C5A-18A6-46E3-B7F1-AACA741334A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{E318185C-8A9A-4A29-98A0-0CEA7463FE50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{E318185C-8A9A-4A29-98A0-0CEA7463FE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -1297,6 +1297,15 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1316,16 +1325,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1366,9 +1366,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Bình thường 2" xfId="1" xr:uid="{BC123D7E-EEC2-44B8-A89A-EAB74A7BF003}"/>
     <cellStyle name="Bình thường 3" xfId="2" xr:uid="{AD2C2090-4C6C-4E85-A652-F964DFEC39CC}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="60">
     <dxf>
@@ -1987,7 +1987,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2296,7 +2296,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2595,7 +2595,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2956,7 +2956,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3221,7 +3221,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[TÊN THỂ LOẠI]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -3232,7 +3232,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3331,7 +3331,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[TÊN THỂ LOẠI]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -3346,7 +3346,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3443,7 +3443,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[TÊN THỂ LOẠI]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -3466,7 +3466,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -3687,7 +3687,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4074,7 +4074,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[TÊN THỂ LOẠI]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -4097,7 +4097,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -4318,7 +4318,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4446,7 +4446,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="25400">
                 <a:solidFill>
@@ -4471,7 +4471,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="25400">
                 <a:solidFill>
@@ -4512,7 +4514,7 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -4549,7 +4551,7 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -4758,7 +4760,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5065,7 +5067,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5483,7 +5485,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5881,7 +5883,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[TÊN THỂ LOẠI]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -5904,7 +5906,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -6125,7 +6127,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6434,7 +6436,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6850,7 +6852,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7242,7 +7244,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[TÊN THỂ LOẠI]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -7265,7 +7267,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[GIÁ TRỊ]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -14805,7 +14807,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15538,8 +15540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB9FFAD-E3D2-4EF5-8568-1EB72610A6BB}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15559,19 +15561,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
@@ -15601,19 +15603,19 @@
       <c r="I2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="88"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="34" t="s">
@@ -15642,9 +15644,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="34" t="s">
         <v>72</v>
       </c>
@@ -15671,11 +15673,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="83"/>
-      <c r="B5" s="82" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="85" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="34" t="s">
@@ -15704,9 +15706,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="34" t="s">
         <v>12</v>
       </c>
@@ -15727,9 +15729,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="34" t="s">
         <v>13</v>
       </c>
@@ -15750,9 +15752,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="34" t="s">
         <v>74</v>
       </c>
@@ -15773,9 +15775,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="34" t="s">
         <v>75</v>
       </c>
@@ -15796,9 +15798,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="34" t="s">
         <v>14</v>
       </c>
@@ -15819,9 +15821,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -15842,9 +15844,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="34" t="s">
         <v>76</v>
       </c>
@@ -15865,9 +15867,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="34" t="s">
         <v>77</v>
       </c>
@@ -15888,9 +15890,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="34" t="s">
         <v>73</v>
       </c>
@@ -15911,11 +15913,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="83"/>
-      <c r="B15" s="82" t="s">
+      <c r="A15" s="86"/>
+      <c r="B15" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="85" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="34" t="s">
@@ -15938,9 +15940,9 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="34" t="s">
         <v>17</v>
       </c>
@@ -15961,9 +15963,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="34" t="s">
         <v>93</v>
       </c>
@@ -15984,9 +15986,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="34" t="s">
         <v>18</v>
       </c>
@@ -16007,9 +16009,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="84"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="34" t="s">
         <v>94</v>
       </c>
@@ -16030,13 +16032,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="86" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -16059,9 +16061,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="34" t="s">
         <v>80</v>
       </c>
@@ -16082,9 +16084,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="34" t="s">
         <v>81</v>
       </c>
@@ -16105,9 +16107,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="34" t="s">
         <v>82</v>
       </c>
@@ -16128,9 +16130,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="34" t="s">
         <v>92</v>
       </c>
@@ -16151,9 +16153,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="34" t="s">
         <v>91</v>
       </c>
@@ -16174,9 +16176,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="34" t="s">
         <v>83</v>
       </c>
@@ -16197,13 +16199,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="78" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="51" t="s">
@@ -16226,9 +16228,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="51" t="s">
         <v>98</v>
       </c>
@@ -16249,9 +16251,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="51" t="s">
         <v>99</v>
       </c>
@@ -16272,9 +16274,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="51" t="s">
         <v>100</v>
       </c>
@@ -16295,9 +16297,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="51" t="s">
         <v>128</v>
       </c>
@@ -16318,9 +16320,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="51" t="s">
         <v>101</v>
       </c>
@@ -16341,9 +16343,9 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="51" t="s">
         <v>102</v>
       </c>
@@ -16364,9 +16366,9 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="51" t="s">
         <v>103</v>
       </c>
@@ -16389,9 +16391,9 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="51" t="s">
         <v>104</v>
       </c>
@@ -16414,13 +16416,13 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
       <c r="F36" s="54">
         <f>SUM(F3:F35)</f>
         <v>372</v>
@@ -16444,15 +16446,15 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="88"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="3"/>
-      <c r="G38" s="80" t="s">
+      <c r="G38" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="81"/>
+      <c r="H38" s="84"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
@@ -16508,6 +16510,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A27:A35"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A1:K1"/>
@@ -16524,8 +16528,6 @@
     <mergeCell ref="C5:C14"/>
     <mergeCell ref="B27:B35"/>
     <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="E20:E26">
@@ -16828,10 +16830,10 @@
       <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:18" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -16866,8 +16868,8 @@
       <c r="R3" s="25"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="34" t="s">
         <v>72</v>
       </c>
@@ -16901,10 +16903,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="85" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -16940,8 +16942,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="34" t="s">
         <v>12</v>
       </c>
@@ -16975,8 +16977,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="34" t="s">
         <v>13</v>
       </c>
@@ -17004,8 +17006,8 @@
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="34" t="s">
         <v>74</v>
       </c>
@@ -17033,8 +17035,8 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="34" t="s">
         <v>75</v>
       </c>
@@ -17062,8 +17064,8 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="34" t="s">
         <v>14</v>
       </c>
@@ -17091,8 +17093,8 @@
       <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="34" t="s">
         <v>15</v>
       </c>
@@ -17120,8 +17122,8 @@
       <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="34" t="s">
         <v>76</v>
       </c>
@@ -17149,8 +17151,8 @@
       <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="34" t="s">
         <v>77</v>
       </c>
@@ -17178,8 +17180,8 @@
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="34" t="s">
         <v>73</v>
       </c>
@@ -17207,10 +17209,10 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="78" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -17240,8 +17242,8 @@
       <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="34" t="s">
         <v>17</v>
       </c>
@@ -17269,8 +17271,8 @@
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="34" t="s">
         <v>93</v>
       </c>
@@ -17298,8 +17300,8 @@
       <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="34" t="s">
         <v>18</v>
       </c>
@@ -17327,8 +17329,8 @@
       <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="34" t="s">
         <v>94</v>
       </c>
@@ -17357,14 +17359,14 @@
     </row>
     <row r="20" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="J21" s="80" t="s">
+      <c r="D21" s="84"/>
+      <c r="J21" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="81"/>
+      <c r="K21" s="84"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="42" t="s">
@@ -17513,10 +17515,10 @@
       <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -17550,8 +17552,8 @@
       <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="34" t="s">
         <v>80</v>
       </c>
@@ -17585,8 +17587,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="34" t="s">
         <v>81</v>
       </c>
@@ -17620,8 +17622,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="34" t="s">
         <v>82</v>
       </c>
@@ -17655,8 +17657,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="34" t="s">
         <v>92</v>
       </c>
@@ -17686,8 +17688,8 @@
       <c r="M7" s="47"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="34" t="s">
         <v>91</v>
       </c>
@@ -17717,8 +17719,8 @@
       <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="34" t="s">
         <v>83</v>
       </c>
@@ -17752,15 +17754,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="81"/>
+      <c r="B11" s="84"/>
       <c r="D11" s="48"/>
-      <c r="K11" s="80" t="s">
+      <c r="K11" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="L11" s="81"/>
+      <c r="L11" s="84"/>
     </row>
     <row r="12" spans="1:13" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
@@ -17902,10 +17904,10 @@
       <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="51" t="s">
@@ -17939,8 +17941,8 @@
       <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="51" t="s">
         <v>98</v>
       </c>
@@ -17974,8 +17976,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="51" t="s">
         <v>99</v>
       </c>
@@ -18009,8 +18011,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="51" t="s">
         <v>100</v>
       </c>
@@ -18044,8 +18046,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="51" t="s">
         <v>128</v>
       </c>
@@ -18073,8 +18075,8 @@
       <c r="K7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="51" t="s">
         <v>101</v>
       </c>
@@ -18102,8 +18104,8 @@
       <c r="K8" s="49"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="51" t="s">
         <v>102</v>
       </c>
@@ -18131,8 +18133,8 @@
       <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="51" t="s">
         <v>103</v>
       </c>
@@ -18160,8 +18162,8 @@
       <c r="K10" s="49"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="51" t="s">
         <v>104</v>
       </c>
@@ -18190,14 +18192,14 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="L13" s="80" t="s">
+      <c r="B13" s="84"/>
+      <c r="L13" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="M13" s="81"/>
+      <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
@@ -18526,6 +18528,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C67113431583B94C8A6DA25208A99150" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e368f08993c02c073d893c0ffb464f68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5179f4ed-0456-4033-bb07-b902202718e4" xmlns:ns4="2fe4d6ba-7215-4b36-8902-32f95bc89ed6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ea0fcb86f04032baf93603fe41017e0" ns3:_="" ns4:_="">
     <xsd:import namespace="5179f4ed-0456-4033-bb07-b902202718e4"/>
@@ -18696,22 +18713,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C5633C-A25B-4876-89DD-B1B7E008050D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="2fe4d6ba-7215-4b36-8902-32f95bc89ed6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5179f4ed-0456-4033-bb07-b902202718e4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7536E2E-DDDD-43D7-BD43-8F588F4BABE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1206D6D3-7530-451B-8E95-B6051DA78843}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18728,29 +18755,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7536E2E-DDDD-43D7-BD43-8F588F4BABE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C5633C-A25B-4876-89DD-B1B7E008050D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="2fe4d6ba-7215-4b36-8902-32f95bc89ed6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5179f4ed-0456-4033-bb07-b902202718e4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>